--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/67/incorrect_predictions_67.xlsx
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
+          <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/67/incorrect_predictions_67.xlsx
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
+          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
